--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -452,9 +452,6 @@
     <t>note channel 5 hard-coded masked from trigger (dead vpol channel)</t>
   </si>
   <si>
-    <t>FLOWER board</t>
-  </si>
-  <si>
     <t xml:space="preserve">REMOTE FIRMWARE PROGRAMMING </t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>register address moved in FLOWER8</t>
+  </si>
+  <si>
+    <t>FLOWER board w/8channel firmware</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
-        <v>44212</v>
+        <v>45170</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="1"/>
@@ -1425,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>x0A</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>47</v>
@@ -1492,7 +1492,7 @@
         <v>x0B</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>47</v>
@@ -1512,7 +1512,7 @@
         <v>x0C</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>47</v>
@@ -1532,7 +1532,7 @@
         <v>x0D</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>47</v>
@@ -1552,10 +1552,10 @@
         <v>x0E</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>6</v>
@@ -1835,7 +1835,7 @@
         <v>x22</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -1971,7 +1971,7 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1993,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2176,13 +2176,13 @@
         <v>21</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,13 +2198,13 @@
         <v>22</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>x3A</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E65" s="34" t="s">
         <v>6</v>
@@ -2236,10 +2236,10 @@
         <v>x3B</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E66" s="34" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>x3C</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>6</v>
@@ -2274,10 +2274,10 @@
         <v>x3D</v>
       </c>
       <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E68" s="45" t="s">
         <v>6</v>
@@ -2358,13 +2358,13 @@
         <v>x42</v>
       </c>
       <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2388,16 +2388,16 @@
         <v>x44</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,13 +2536,13 @@
         <v>35</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -2742,16 +2742,16 @@
         <v>x56</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
         <v>x57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -2784,10 +2784,10 @@
         <v>x58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -2804,10 +2804,10 @@
         <v>x59</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
@@ -2824,10 +2824,10 @@
         <v>x5A</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -2844,10 +2844,10 @@
         <v>x5B</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
@@ -2864,10 +2864,10 @@
         <v>x5C</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -2884,10 +2884,10 @@
         <v>x5D</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
@@ -2904,10 +2904,10 @@
         <v>x5E</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E101" s="55" t="s">
         <v>11</v>
@@ -2923,13 +2923,13 @@
         <v>x5F</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F102" s="7"/>
     </row>
@@ -2943,10 +2943,10 @@
         <v>x60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -2963,10 +2963,10 @@
         <v>x61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>7</v>
@@ -3060,7 +3060,7 @@
         <v>116</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>113</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>114</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>117</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>118</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>99</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>98</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>107</v>
       </c>
       <c r="F121" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>98</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>98</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>109</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>98</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>98</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>119</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>115</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,10 +3416,10 @@
         <v>x7B</v>
       </c>
       <c r="C130" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="40" t="s">
         <v>142</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -3432,10 +3432,10 @@
         <v>x7C</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="197">
   <si>
     <t>Register Map</t>
   </si>
@@ -618,13 +618,19 @@
   </si>
   <si>
     <t>FLOWER board w/8channel firmware</t>
+  </si>
+  <si>
+    <t>sync reg</t>
+  </si>
+  <si>
+    <t>LSB=1, then board is master. If a 2 is written then board is slave. If syncing a command, slave board needs to be assigned *first*, which makes board look at ext_trig_in for a sync. Then assigning master board register makes ext_trig_out the sync signal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +714,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,11 +934,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,38 +1242,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="58">
         <v>45170</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
@@ -2737,7 +2755,7 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="B93" s="59" t="str">
+      <c r="B93" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x56</v>
       </c>
@@ -2759,7 +2777,7 @@
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B94" s="59" t="str">
+      <c r="B94" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x57</v>
       </c>
@@ -2779,7 +2797,7 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B95" s="59" t="str">
+      <c r="B95" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x58</v>
       </c>
@@ -2799,7 +2817,7 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B96" s="59" t="str">
+      <c r="B96" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x59</v>
       </c>
@@ -2819,7 +2837,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B97" s="59" t="str">
+      <c r="B97" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x5A</v>
       </c>
@@ -2839,7 +2857,7 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B98" s="59" t="str">
+      <c r="B98" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x5B</v>
       </c>
@@ -2859,7 +2877,7 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B99" s="59" t="str">
+      <c r="B99" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x5C</v>
       </c>
@@ -2879,7 +2897,7 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B100" s="59" t="str">
+      <c r="B100" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x5D</v>
       </c>
@@ -2918,7 +2936,7 @@
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B102" s="59" t="str">
+      <c r="B102" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x5F</v>
       </c>
@@ -2938,7 +2956,7 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B103" s="59" t="str">
+      <c r="B103" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x60</v>
       </c>
@@ -2958,7 +2976,7 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B104" s="59" t="str">
+      <c r="B104" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x61</v>
       </c>
@@ -2986,7 +3004,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -2995,9 +3013,15 @@
         <f t="shared" si="2"/>
         <v>x63</v>
       </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="C106" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -3008,9 +3032,9 @@
         <f t="shared" si="2"/>
         <v>x64</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="60"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -630,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +722,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -827,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -937,13 +945,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1236,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,38 +1251,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="60">
         <v>45170</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
@@ -3013,13 +3022,13 @@
         <f t="shared" si="2"/>
         <v>x63</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D106" s="61" t="s">
+      <c r="D106" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E106" s="60" t="s">
+      <c r="E106" s="57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3032,9 +3041,9 @@
         <f t="shared" si="2"/>
         <v>x64</v>
       </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="60"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -3147,6 +3156,7 @@
       <c r="C114" s="31" t="s">
         <v>118</v>
       </c>
+      <c r="D114" s="62"/>
       <c r="F114" s="33" t="s">
         <v>139</v>
       </c>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -515,9 +515,6 @@
     <t>COINC TRIGGER-&gt; mask and num_coinc</t>
   </si>
   <si>
-    <t>toggle FPGA-generated fast pulse w/ LSB, toggle RF switch with LSB+1, bit8 is freq select (0=fastest, 1=8x slower)</t>
-  </si>
-  <si>
     <t>x000200</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>LSB=1, then board is master. If a 2 is written then board is slave. If syncing a command, slave board needs to be assigned *first*, which makes board look at ext_trig_in for a sync. Then assigning master board register makes ext_trig_out the sync signal</t>
+  </si>
+  <si>
+    <t>toggle FPGA-generated fast pulse w/ LSB, toggle RF switch with LSB+1, bit8 is freq select (0=fastest, 1=8x slower), bit16 is the pps sync option</t>
   </si>
 </sst>
 </file>
@@ -949,10 +949,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,38 +1251,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="61">
         <v>45170</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
@@ -1452,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>x0A</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>47</v>
@@ -1519,7 +1519,7 @@
         <v>x0B</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>47</v>
@@ -1539,7 +1539,7 @@
         <v>x0C</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>47</v>
@@ -1559,7 +1559,7 @@
         <v>x0D</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>47</v>
@@ -1579,10 +1579,10 @@
         <v>x0E</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>6</v>
@@ -1998,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -2020,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2301,10 +2301,10 @@
         <v>x3D</v>
       </c>
       <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E68" s="45" t="s">
         <v>6</v>
@@ -2391,7 +2391,7 @@
         <v>151</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2415,16 +2415,16 @@
         <v>x44</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,13 +2563,13 @@
         <v>35</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E83" t="s">
-        <v>178</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -2778,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>x5A</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>158</v>
@@ -2871,7 +2871,7 @@
         <v>x5B</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>158</v>
@@ -2891,7 +2891,7 @@
         <v>x5C</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>158</v>
@@ -2911,7 +2911,7 @@
         <v>x5D</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>158</v>
@@ -2931,10 +2931,10 @@
         <v>x5E</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="E101" s="55" t="s">
         <v>11</v>
@@ -2953,10 +2953,10 @@
         <v>159</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102" s="7"/>
     </row>
@@ -2970,10 +2970,10 @@
         <v>x60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -2990,10 +2990,10 @@
         <v>x61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>7</v>
@@ -3023,10 +3023,10 @@
         <v>x63</v>
       </c>
       <c r="C106" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="E106" s="57" t="s">
         <v>7</v>
@@ -3156,7 +3156,7 @@
       <c r="C114" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="62"/>
+      <c r="D114" s="59"/>
       <c r="F114" s="33" t="s">
         <v>139</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="600" windowWidth="23235" windowHeight="14700"/>
+    <workbookView xWindow="1455" yWindow="600" windowWidth="23235" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="registers" sheetId="1" r:id="rId1"/>
+    <sheet name="scalers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="229">
   <si>
     <t>Register Map</t>
   </si>
@@ -624,6 +625,102 @@
   </si>
   <si>
     <t>toggle FPGA-generated fast pulse w/ LSB, toggle RF switch with LSB+1, bit8 is freq select (0=fastest, 1=8x slower), bit16 is the pps sync option</t>
+  </si>
+  <si>
+    <t>software trig_type=1 ; external trig_type=2; coinc trig_type=3; phase trig_type=4, internal pps_trig_type=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCALER # </t>
+  </si>
+  <si>
+    <t>update rate</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>1Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaler adr </t>
+  </si>
+  <si>
+    <t>coincidence trig</t>
+  </si>
+  <si>
+    <t>ch0 singles</t>
+  </si>
+  <si>
+    <t>ch1 singles</t>
+  </si>
+  <si>
+    <t>ch3 singles</t>
+  </si>
+  <si>
+    <t>ch2 singles</t>
+  </si>
+  <si>
+    <t>ch4 singles</t>
+  </si>
+  <si>
+    <t>ch5 singles</t>
+  </si>
+  <si>
+    <t>ch6 singles</t>
+  </si>
+  <si>
+    <t>ch7 singles</t>
+  </si>
+  <si>
+    <t>coincidence servo</t>
+  </si>
+  <si>
+    <t>ch0 servo</t>
+  </si>
+  <si>
+    <t>ch1 servo</t>
+  </si>
+  <si>
+    <t>ch2 servo</t>
+  </si>
+  <si>
+    <t>ch3 servo</t>
+  </si>
+  <si>
+    <t>ch4 servo</t>
+  </si>
+  <si>
+    <t>ch5 servo</t>
+  </si>
+  <si>
+    <t>ch6 servo</t>
+  </si>
+  <si>
+    <t>ch7 servo</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>gated 1Hz</t>
+  </si>
+  <si>
+    <t>100Hz</t>
+  </si>
+  <si>
+    <t>1Hz scaler update counter</t>
+  </si>
+  <si>
+    <t>all 12 bits -- 2 scalers per scaler adr</t>
+  </si>
+  <si>
+    <t>latched pps counter (lower 24 bits)</t>
+  </si>
+  <si>
+    <t>latched pps counter (upper 24 bits)</t>
+  </si>
+  <si>
+    <t>will change to 0.1Hz</t>
   </si>
 </sst>
 </file>
@@ -835,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -950,6 +1047,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1235,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,38 +1349,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="62">
         <v>45170</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
@@ -1569,7 +1667,7 @@
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1587,7 +1685,9 @@
       <c r="E21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
@@ -3535,4 +3635,1009 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="60">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <f t="shared" ref="A4:A63" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="60">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="60">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="60">
+        <v>2</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="60">
+        <v>2</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="60">
+        <v>3</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="60">
+        <v>3</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="60">
+        <v>4</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="60">
+        <v>4</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="60">
+        <v>5</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="60">
+        <v>5</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="60">
+        <v>6</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="60">
+        <v>6</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="60">
+        <v>7</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="60">
+        <v>7</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="60">
+        <v>8</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="60">
+        <v>8</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="60">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="60">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="60">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="60">
+        <v>10</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="60">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="60">
+        <v>10</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="60">
+        <v>11</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="60">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="60">
+        <v>11</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="60">
+        <v>12</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="60">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="60">
+        <v>12</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="60">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="60">
+        <v>13</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="60">
+        <v>13</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="60">
+        <v>14</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="60">
+        <v>14</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="60">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="60">
+        <v>15</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="60">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="60">
+        <v>15</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="60">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="60">
+        <v>16</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="60">
+        <v>16</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="60">
+        <v>17</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="60">
+        <v>17</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="60">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="60">
+        <v>18</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="60">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="60">
+        <v>18</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="60">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="60">
+        <v>19</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="60">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="60">
+        <v>19</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="60">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="60">
+        <v>20</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="60">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="60">
+        <v>20</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="60">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="60">
+        <v>21</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="60">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="60">
+        <v>21</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="60">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="60">
+        <v>22</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="60">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="60">
+        <v>22</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="60">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="60">
+        <v>23</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="60">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="60">
+        <v>23</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="60">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="60">
+        <v>24</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="60">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="60">
+        <v>24</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="60">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="60">
+        <v>25</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="60">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="60">
+        <v>25</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="60">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="60">
+        <v>26</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="60">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="60">
+        <v>26</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="60">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="60">
+        <v>27</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="60">
+        <v>27</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="60">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="60">
+        <v>28</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="60">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="60">
+        <v>28</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="60">
+        <v>29</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="60">
+        <v>29</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="60">
+        <v>30</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="60">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="60">
+        <v>30</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="60">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="60">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="60">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="60">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="600" windowWidth="23235" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="1455" yWindow="600" windowWidth="23235" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,9 +3641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="233">
   <si>
     <t>Register Map</t>
   </si>
@@ -721,6 +721,18 @@
   </si>
   <si>
     <t>will change to 0.1Hz</t>
+  </si>
+  <si>
+    <t>sys trig out not used in terradaq/beacon/ dual flower8!!!</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>set top scaler update rate to 100Hz or 100mHz</t>
+  </si>
+  <si>
+    <t>lsb=1 is 100Hz, lsb=0 is 100mHz [default]</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2208,15 @@
         <f t="shared" si="0"/>
         <v>x2F</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="C54" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -2615,7 +2635,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2628,7 +2648,7 @@
       <c r="D81" s="12"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2650,7 +2670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2672,7 +2692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2694,7 +2714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2716,7 +2736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2729,7 +2749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2750,8 +2770,11 @@
       <c r="F87" s="47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -2772,8 +2795,11 @@
       <c r="F88" s="47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -2794,8 +2820,11 @@
       <c r="F89" s="47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G89" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2816,8 +2845,11 @@
       <c r="F90" s="47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G90" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -2838,8 +2870,11 @@
       <c r="F91" s="47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G91" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -2859,7 +2894,7 @@
       </c>
       <c r="F92" s="47"/>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -2881,7 +2916,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -2901,7 +2936,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -2921,7 +2956,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -3078,7 +3113,9 @@
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
   <si>
     <t>Register Map</t>
   </si>
@@ -733,6 +733,21 @@
   </si>
   <si>
     <t>lsb=1 is 100Hz, lsb=0 is 100mHz [default]</t>
+  </si>
+  <si>
+    <t>event metadata-&gt;trig</t>
+  </si>
+  <si>
+    <t>read_only - event meta data -- low 8 bits latched trigger channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COINC TRIGGER-&gt; mask </t>
+  </si>
+  <si>
+    <t>lowest-byte is channel mask</t>
+  </si>
+  <si>
+    <t>x0000FF</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,6 +1725,12 @@
         <f t="shared" si="0"/>
         <v>x0F</v>
       </c>
+      <c r="C22" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3146,9 +3167,15 @@
         <f t="shared" si="2"/>
         <v>x62</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="C105" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -3679,7 +3706,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,11 +3159,11 @@
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B105" s="24" t="str">
+      <c r="B105" s="56" t="str">
         <f t="shared" si="2"/>
         <v>x62</v>
       </c>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erico\Desktop\projects\greenland_lowthreshold_system\FLOWER8-board-firmware\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erico\Desktop\projects\FLOWER8-board-firmware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="600" windowWidth="23235" windowHeight="14700"/>
+    <workbookView xWindow="1452" yWindow="600" windowWidth="23232" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="239">
   <si>
     <t>Register Map</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>x0000FF</t>
+  </si>
+  <si>
+    <t>event metadata-&gt;pps counter</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1074,6 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1360,54 +1364,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:E105"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="74.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="63">
         <v>45170</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
@@ -1416,13 +1420,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>1+A8</f>
         <v>2</v>
@@ -1488,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A73" si="1">1+A9</f>
         <v>3</v>
@@ -1507,7 +1511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1526,7 +1530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1545,7 +1549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1564,7 +1568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1580,7 +1584,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1596,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1612,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1634,7 +1638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1654,7 +1658,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1664,7 +1668,7 @@
         <v>x0C</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>47</v>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1684,7 +1688,7 @@
         <v>x0D</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>47</v>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1704,50 +1708,57 @@
         <v>x0E</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>x0F</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>x0F</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>x10</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>x10</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1761,7 +1772,7 @@
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1775,7 +1786,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1789,7 +1800,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1803,7 +1814,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1817,7 +1828,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1831,7 +1842,7 @@
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1845,7 +1856,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1859,7 +1870,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1873,7 +1884,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1887,7 +1898,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1901,7 +1912,7 @@
       <c r="E34" s="18"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1915,7 +1926,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1929,7 +1940,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1943,7 +1954,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1957,7 +1968,7 @@
       <c r="E38" s="18"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1971,7 +1982,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1985,7 +1996,7 @@
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2001,7 +2012,7 @@
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2020,7 +2031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2039,7 +2050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2058,7 +2069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2077,7 +2088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="51">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2099,7 +2110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2118,7 +2129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2140,7 +2151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2162,7 +2173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2172,7 +2183,7 @@
         <v>x2B</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2191,7 +2202,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2210,7 +2221,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2220,7 +2231,7 @@
         <v>x2E</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2239,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2261,7 +2272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2271,7 +2282,7 @@
         <v>x31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2281,7 +2292,7 @@
         <v>x32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2291,7 +2302,7 @@
         <v>x33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2301,7 +2312,7 @@
         <v>x34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2311,7 +2322,7 @@
         <v>x35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2321,7 +2332,7 @@
         <v>x36</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2331,7 +2342,7 @@
         <v>x37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2353,7 +2364,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2375,7 +2386,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2394,7 +2405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2413,7 +2424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2432,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2451,7 +2462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2466,7 +2477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2478,7 +2489,7 @@
       <c r="C70" s="30"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2497,7 +2508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2516,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2535,7 +2546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <f t="shared" ref="A74:A134" si="3">1+A73</f>
         <v>67</v>
@@ -2546,7 +2557,7 @@
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2568,7 +2579,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2590,7 +2601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2601,7 +2612,7 @@
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2623,7 +2634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2645,7 +2656,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -2656,7 +2667,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2669,7 +2680,7 @@
       <c r="D81" s="12"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2691,7 +2702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2713,7 +2724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2735,7 +2746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2757,7 +2768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2770,7 +2781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2795,7 +2806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -2820,7 +2831,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -2845,7 +2856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2870,7 +2881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -2895,7 +2906,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -2915,7 +2926,7 @@
       </c>
       <c r="F92" s="47"/>
     </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -2937,7 +2948,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -2957,7 +2968,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -2977,7 +2988,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -2997,7 +3008,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -3017,7 +3028,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -3037,7 +3048,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -3057,7 +3068,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -3077,7 +3088,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -3096,7 +3107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -3116,7 +3127,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -3138,7 +3149,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -3158,7 +3169,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -3177,7 +3188,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -3196,7 +3207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -3209,7 +3220,7 @@
       <c r="D107" s="58"/>
       <c r="E107" s="57"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -3222,7 +3233,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="35">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -3241,7 +3252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -3260,7 +3271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -3276,7 +3287,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -3292,7 +3303,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -3308,7 +3319,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -3325,7 +3336,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -3347,7 +3358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -3369,7 +3380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -3388,7 +3399,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -3407,7 +3418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -3426,7 +3437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -3445,7 +3456,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -3464,7 +3475,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -3483,7 +3494,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -3502,7 +3513,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -3521,7 +3532,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -3540,7 +3551,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -3559,7 +3570,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -3575,7 +3586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -3594,7 +3605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -3604,7 +3615,7 @@
         <v>x7A</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="38">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -3620,7 +3631,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -3636,7 +3647,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -3648,7 +3659,7 @@
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -3667,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="51">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -3710,16 +3721,16 @@
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>198</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3750,7 +3761,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -3765,7 +3776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="60">
         <f t="shared" ref="A4:A63" si="0">A3+1</f>
         <v>2</v>
@@ -3780,7 +3791,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3795,7 +3806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3810,7 +3821,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3825,7 +3836,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3840,7 +3851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3855,7 +3866,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="60">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3870,7 +3881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3885,7 +3896,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3900,7 +3911,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3915,7 +3926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="60">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3930,7 +3941,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="60">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3945,7 +3956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="60">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3960,7 +3971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3975,7 +3986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="60">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3990,7 +4001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="60">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4005,7 +4016,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="60">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4020,7 +4031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="60">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4035,7 +4046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4050,7 +4061,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="60">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4065,7 +4076,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="60">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4080,7 +4091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="60">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4095,7 +4106,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="60">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4110,7 +4121,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="60">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4125,7 +4136,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="60">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4140,7 +4151,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="60">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4155,7 +4166,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="60">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4170,7 +4181,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="60">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4185,7 +4196,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="60">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4200,7 +4211,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="60">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4215,7 +4226,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="60">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4230,7 +4241,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="60">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4245,7 +4256,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="60">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4260,7 +4271,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="60">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4275,7 +4286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="60">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4290,7 +4301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="60">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4305,7 +4316,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="60">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4320,7 +4331,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="60">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4335,7 +4346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="60">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4353,7 +4364,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="60">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4368,7 +4379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="60">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4383,7 +4394,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="60">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4398,7 +4409,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="60">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4413,7 +4424,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="60">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4428,7 +4439,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="60">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4443,7 +4454,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="60">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4458,7 +4469,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="60">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4473,7 +4484,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="60">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4488,7 +4499,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4503,7 +4514,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="60">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4518,7 +4529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="60">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4533,7 +4544,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="60">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4548,7 +4559,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="60">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4563,7 +4574,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="60">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4578,7 +4589,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="60">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4593,7 +4604,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="60">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4608,7 +4619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4623,7 +4634,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4638,7 +4649,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="60">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4650,7 +4661,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="60">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4662,7 +4673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4684,7 +4695,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" s="60">
         <v>32</v>
       </c>
@@ -4692,7 +4703,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" s="60">
         <v>33</v>
       </c>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erico\Desktop\projects\FLOWER8-board-firmware\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811BC1F-3E36-4C22-A80E-F98C90D88214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="600" windowWidth="23232" windowHeight="14700"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
     <sheet name="scalers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
   <si>
     <t>Register Map</t>
   </si>
@@ -279,15 +271,6 @@
     <t>LSB: master 100 MHz clock select: local oscillator (==1) or external LVDS input (==0)</t>
   </si>
   <si>
-    <t>enable phased trigger to trigger data manager</t>
-  </si>
-  <si>
-    <t>LSB-&gt;enable</t>
-  </si>
-  <si>
-    <t>allows the scalers to be run without triggering the data manager, disabling allows easy initilization of the data manager paramters</t>
-  </si>
-  <si>
     <t>SEE SCALER SHEET (**TO DO**)</t>
   </si>
   <si>
@@ -321,12 +304,6 @@
     <t>lower 16 bits -&gt; max trig hold off is 2^16 * 1/(93.75 MHz) = 709 microsecs</t>
   </si>
   <si>
-    <t>trigger verification mode</t>
-  </si>
-  <si>
-    <t>LSB=1 : double checks that max beam is the trigger beam (+16 clock cycles of latency), LSB=0: trigger without verification</t>
-  </si>
-  <si>
     <t>bit 0 write enable, bit 1 toggle fifo write clock</t>
   </si>
   <si>
@@ -402,15 +379,9 @@
     <t>phased trigger enables</t>
   </si>
   <si>
-    <t>LSB enables phased trigger;  bits 8 thru 10 enable beams 8, 4a,4b, respectively</t>
-  </si>
-  <si>
     <t>external trigger input config</t>
   </si>
   <si>
-    <t>x000700</t>
-  </si>
-  <si>
     <t>x0001FF</t>
   </si>
   <si>
@@ -498,21 +469,6 @@
     <t>for adc alignment</t>
   </si>
   <si>
-    <t>COINC TRIGGER-&gt; threshold ch0</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch1</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch2</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch3</t>
-  </si>
-  <si>
-    <t>lowest byte : nominal trigger thresh ; middle byte : servo trigger threshold</t>
-  </si>
-  <si>
     <t>COINC TRIGGER-&gt; mask and num_coinc</t>
   </si>
   <si>
@@ -525,9 +481,6 @@
     <t>flower trig enables</t>
   </si>
   <si>
-    <t>LSB-&gt; pps trig enable, middle byte LSB-&gt; coinc trig enable, high byte LSB-&gt;ext trig enable</t>
-  </si>
-  <si>
     <t>LSB</t>
   </si>
   <si>
@@ -600,21 +553,6 @@
     <t>low-byte LSB sends  coinc trig to SMA output; middle byte LSB sends delayed pps to SMA output</t>
   </si>
   <si>
-    <t>COINC TRIGGER-&gt; threshold ch4</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch5</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch6</t>
-  </si>
-  <si>
-    <t>COINC TRIGGER-&gt; threshold ch7</t>
-  </si>
-  <si>
-    <t>register address moved in FLOWER8</t>
-  </si>
-  <si>
     <t>FLOWER board w/8channel firmware</t>
   </si>
   <si>
@@ -751,12 +689,54 @@
   </si>
   <si>
     <t>event metadata-&gt;pps counter</t>
+  </si>
+  <si>
+    <t>LSB enables phased trigger;  num_beams-1 to 1 turn on beams</t>
+  </si>
+  <si>
+    <t>replacing with p-hased trigger</t>
+  </si>
+  <si>
+    <t>LSB-&gt; pps trig enable, middle byte LSB-&gt; phased trig enable, high byte LSB-&gt;ext trig enable</t>
+  </si>
+  <si>
+    <t>beam 0 thresholds</t>
+  </si>
+  <si>
+    <t>beam 1 thresholds</t>
+  </si>
+  <si>
+    <t>beam 2 thresholds</t>
+  </si>
+  <si>
+    <t>beam 3 thresholds</t>
+  </si>
+  <si>
+    <t>beam 4 thresholds</t>
+  </si>
+  <si>
+    <t>beam 5 thresholds</t>
+  </si>
+  <si>
+    <t>beam 6 thresholds</t>
+  </si>
+  <si>
+    <t>beam 7 thresholds</t>
+  </si>
+  <si>
+    <t>beam 8 thresholds</t>
+  </si>
+  <si>
+    <t>beam 9 thresholds</t>
+  </si>
+  <si>
+    <t>RK 2/9/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,12 +942,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -977,29 +955,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,15 +979,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,7 +989,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,7 +1011,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1064,11 +1026,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,10 +1038,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,72 +1318,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="74.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
-        <v>45170</v>
-      </c>
-      <c r="B4" s="64"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="44"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1442,30 +1399,30 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="16" t="str">
         <f>"x" &amp; DEC2HEX(A7,2)</f>
         <v>x00</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" ref="B8:B71" si="0">"x" &amp; DEC2HEX(A8,2)</f>
         <v>x01</v>
       </c>
@@ -1476,12 +1433,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1+A8</f>
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x02</v>
       </c>
@@ -1492,12 +1449,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10:A73" si="1">1+A9</f>
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x03</v>
       </c>
@@ -1507,16 +1464,16 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x04</v>
       </c>
@@ -1526,615 +1483,563 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x05</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x06</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x07</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x08</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x09</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>x0A</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x0B</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x0C</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x0D</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x0E</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x0F</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="F22" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x10</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x11</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x12</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x13</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x14</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x15</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B29" s="26" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x16</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B30" s="26" t="str">
+      <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x17</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B31" s="26" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x18</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B32" s="26" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x19</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B33" s="26" t="str">
+      <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1A</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1B</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B35" s="26" t="str">
+      <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1C</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B36" s="26" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1D</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B37" s="26" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1E</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B38" s="26" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x1F</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B39" s="26" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x20</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B40" s="26" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x21</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="29" t="str">
         <f t="shared" si="0"/>
         <v>x22</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B42" s="24" t="str">
+      <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x23</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B43" s="24" t="str">
+      <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x24</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B44" s="24" t="str">
+      <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x25</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B45" s="24" t="str">
+      <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x26</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="51">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B46" s="52" t="str">
+      <c r="B46" s="38" t="str">
         <f t="shared" si="0"/>
         <v>x27</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B47" s="24" t="str">
+      <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x28</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B48" s="24" t="str">
+      <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x29</v>
       </c>
@@ -2142,359 +2047,360 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B49" s="24" t="str">
+      <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2A</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>196</v>
+      <c r="D49" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B50" s="24" t="str">
+      <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2B</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B51" s="24" t="str">
+      <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2C</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B52" s="24" t="str">
+      <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2D</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B53" s="24" t="str">
+      <c r="B53" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2E</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B54" s="24" t="str">
+      <c r="B54" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x2F</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B55" s="24" t="str">
+      <c r="B55" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x30</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B56" s="24" t="str">
+      <c r="B56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B57" s="24" t="str">
+      <c r="B57" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B58" s="24" t="str">
+      <c r="B58" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B59" s="24" t="str">
+      <c r="B59" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B60" s="24" t="str">
+      <c r="B60" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B61" s="24" t="str">
+      <c r="B61" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x36</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B62" s="24" t="str">
+      <c r="B62" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B63" s="24" t="str">
+      <c r="B63" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x38</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B64" s="24" t="str">
+      <c r="B64" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x39</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B65" s="24" t="str">
+      <c r="B65" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3A</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="34" t="s">
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B66" s="24" t="str">
+      <c r="B66" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3B</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="34" t="s">
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B67" s="24" t="str">
+      <c r="B67" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3C</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B68" s="24" t="str">
+      <c r="B68" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3D</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B69" s="24" t="str">
+      <c r="B69" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3E</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="5"/>
-      <c r="F69" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B70" s="24" t="str">
+      <c r="B70" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x3F</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B71" s="24" t="str">
+      <c r="B71" s="16" t="str">
         <f t="shared" si="0"/>
         <v>x40</v>
       </c>
@@ -2508,12 +2414,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B72" s="24" t="str">
+      <c r="B72" s="16" t="str">
         <f t="shared" ref="B72:B134" si="2">"x" &amp; DEC2HEX(A72,2)</f>
         <v>x41</v>
       </c>
@@ -2527,843 +2433,813 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B73" s="24" t="str">
+      <c r="B73" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x42</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+        <v>143</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <f t="shared" ref="A74:A134" si="3">1+A73</f>
         <v>67</v>
       </c>
-      <c r="B74" s="24" t="str">
+      <c r="B74" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x43</v>
       </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B75" s="24" t="str">
+      <c r="B75" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x44</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="C75" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B76" s="24" t="str">
+      <c r="B76" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x45</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" t="s">
         <v>65</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+    <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B77" s="24" t="str">
+      <c r="B77" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x46</v>
       </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B78" s="24" t="str">
+      <c r="B78" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x47</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B79" s="24" t="str">
+      <c r="B79" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x48</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B80" s="24" t="str">
+      <c r="B80" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x49</v>
       </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B81" s="24" t="str">
+      <c r="B81" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4A</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="12"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="C81"/>
+      <c r="D81" s="8"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B82" s="24" t="str">
+      <c r="B82" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4B</v>
       </c>
-      <c r="C82" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B83" s="24" t="str">
+      <c r="B83" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4C</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>182</v>
+      <c r="D83" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="B84" s="24" t="str">
+      <c r="B84" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4D</v>
       </c>
       <c r="C84" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>164</v>
+      <c r="D84" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="B85" s="24" t="str">
+      <c r="B85" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4E</v>
       </c>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="B86" s="24" t="str">
+      <c r="B86" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x4F</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B87" s="24" t="str">
+      <c r="B87" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x50</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C87" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E87" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F87" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G87" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="B88" s="24" t="str">
+      <c r="B88" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x51</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D88" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="B89" s="24" t="str">
+      <c r="B89" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x52</v>
       </c>
-      <c r="C89" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="47" t="s">
+      <c r="C89" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G89" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="B90" s="24" t="str">
+      <c r="B90" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x53</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="C90" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F90" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="B91" s="24" t="str">
+      <c r="B91" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x54</v>
       </c>
-      <c r="C91" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" s="46" t="s">
+      <c r="C91" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F91" s="33"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="B92" s="24" t="str">
+      <c r="B92" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x55</v>
       </c>
-      <c r="C92" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="47"/>
-    </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="33"/>
+      <c r="E92" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="B93" s="56" t="str">
+      <c r="B93" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C93" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B94" s="56" t="str">
+      <c r="B94" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x57</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C94" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="5"/>
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B95" s="56" t="str">
+      <c r="B95" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x58</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C95" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B96" s="56" t="str">
+      <c r="B96" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x59</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C96" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="5"/>
       <c r="E96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B97" s="56" t="str">
+      <c r="B97" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x5A</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C97" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="5"/>
       <c r="E97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B98" s="56" t="str">
+      <c r="B98" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x5B</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C98" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B99" s="56" t="str">
+      <c r="B99" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x5C</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C99" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B100" s="56" t="str">
+      <c r="B100" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x5D</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="C100" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B101" s="24" t="str">
+      <c r="B101" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x5E</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101" s="55" t="s">
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B102" s="56" t="str">
+      <c r="B102" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x5F</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B103" s="56" t="str">
+      <c r="B103" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B104" s="56" t="str">
+      <c r="B104" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B105" s="56" t="str">
+      <c r="B105" s="40" t="str">
         <f t="shared" si="2"/>
         <v>x62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B106" s="24" t="str">
+      <c r="B106" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x63</v>
       </c>
-      <c r="C106" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="E106" s="57" t="s">
+      <c r="C106" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B107" s="24" t="str">
+      <c r="B107" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x64</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="57"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="41"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="41"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B108" s="24" t="str">
+      <c r="B108" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x65</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35">
+    </row>
+    <row r="109" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B109" s="36" t="str">
+      <c r="B109" s="23" t="str">
         <f t="shared" si="2"/>
         <v>x66</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F109" s="37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31">
+      <c r="F109" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="19">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B110" s="32" t="str">
+      <c r="B110" s="20" t="str">
         <f t="shared" si="2"/>
         <v>x67</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="19">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B111" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x68</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="19">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B112" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x69</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="19">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B113" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6A</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="31">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="B111" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x68</v>
-      </c>
-      <c r="C111" s="31" t="s">
+      <c r="F113" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="19">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B114" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6B</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="31">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B112" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x69</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="31">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B113" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x6A</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B114" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x6B</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" s="59"/>
-      <c r="F114" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D114" s="43"/>
+      <c r="F114" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B115" s="24" t="str">
+      <c r="B115" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x6C</v>
       </c>
-      <c r="C115" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E115" s="27" t="s">
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B116" s="24" t="str">
+      <c r="B116" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x6D</v>
       </c>
@@ -3376,295 +3252,295 @@
       <c r="E116" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="31">
+    <row r="117" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="19">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B117" s="32" t="str">
+      <c r="B117" s="20" t="str">
         <f t="shared" si="2"/>
         <v>x6E</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B118" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6F</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x70</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x71</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="19">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x72</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="19">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B122" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x73</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="19">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x74</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="31">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="B118" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x6F</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="31">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B119" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x70</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="31">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B120" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x71</v>
-      </c>
-      <c r="C120" s="31" t="s">
+      <c r="D123" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="19">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x75</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="31">
-        <f t="shared" si="3"/>
+      <c r="D124" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="19">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B125" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x76</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="19">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x77</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="19">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x78</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B121" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x72</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="31">
-        <f t="shared" si="3"/>
+      <c r="F127" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="19">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x79</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x73</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="31">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B123" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x74</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="31">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B124" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x75</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="31">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B125" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x76</v>
-      </c>
-      <c r="C125" s="31" t="s">
+      <c r="D128" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="31">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B126" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x77</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="31">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B127" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x78</v>
-      </c>
-      <c r="C127" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="31">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B128" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>x79</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B129" s="24" t="str">
+      <c r="B129" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x7A</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="38">
+    <row r="130" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="25">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B130" s="39" t="str">
+      <c r="B130" s="26" t="str">
         <f t="shared" si="2"/>
         <v>x7B</v>
       </c>
-      <c r="C130" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38">
+      <c r="C130" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="25">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B131" s="39" t="str">
+      <c r="B131" s="26" t="str">
         <f t="shared" si="2"/>
         <v>x7C</v>
       </c>
-      <c r="C131" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F131" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B132" s="24" t="str">
+      <c r="B132" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x7D</v>
       </c>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B133" s="24" t="str">
+      <c r="B133" s="16" t="str">
         <f t="shared" si="2"/>
         <v>x7E</v>
       </c>
@@ -3678,26 +3554,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="51">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="37">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B134" s="52" t="str">
+      <c r="B134" s="38" t="str">
         <f t="shared" si="2"/>
         <v>x7F</v>
       </c>
-      <c r="C134" s="51" t="s">
+      <c r="C134" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="54" t="s">
+      <c r="D134" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E134" s="51" t="s">
+      <c r="E134" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>179</v>
+      <c r="F134" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3713,1002 +3589,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <f t="shared" ref="A4:A63" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="60">
-        <v>1</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="60">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="60">
-        <v>2</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="60">
-        <v>2</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="60">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="60">
-        <v>3</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="60">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="60">
-        <v>3</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="60">
-        <v>4</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="60">
-        <v>4</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="60">
-        <v>5</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="60">
-        <v>5</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="60">
-        <v>6</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="60">
-        <v>6</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="60">
-        <v>7</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="60">
-        <v>7</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="60">
-        <v>8</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="60">
-        <v>8</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="60">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="60">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="60">
-        <v>10</v>
-      </c>
-      <c r="C22" s="60" t="s">
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
         <v>203</v>
       </c>
-      <c r="D22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="60">
-        <v>10</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="60">
-        <v>11</v>
-      </c>
-      <c r="C24" s="60" t="s">
+      <c r="D60" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="60">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="60">
-        <v>11</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="60">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="60">
-        <v>12</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="60">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="60">
-        <v>12</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="60">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="60">
-        <v>13</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="60">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="60">
-        <v>13</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="60">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="60">
-        <v>14</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>29</v>
       </c>
-      <c r="B31" s="60">
-        <v>14</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="60">
-        <f t="shared" si="0"/>
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>30</v>
       </c>
-      <c r="B32" s="60">
-        <v>15</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="60">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="60">
-        <v>15</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="60">
-        <v>16</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="60">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="60">
-        <v>16</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="60">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="60">
-        <v>17</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="60">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="60">
-        <v>17</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="60">
-        <v>18</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="60">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="60">
-        <v>18</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="60">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="60">
-        <v>19</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="60">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="60">
-        <v>19</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="60">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="60">
-        <v>20</v>
-      </c>
-      <c r="C42" s="60" t="s">
+      <c r="C62" t="s">
         <v>203</v>
       </c>
-      <c r="D42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="60">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="60">
-        <v>20</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="60">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="60">
-        <v>21</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="60">
-        <v>21</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="60">
-        <v>22</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="60">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="60">
-        <v>22</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="60">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="60">
-        <v>23</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="60">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="60">
-        <v>23</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="60">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="60">
-        <v>24</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="60">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="60">
-        <v>24</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="60">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="60">
-        <v>25</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="60">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="60">
-        <v>25</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="60">
-        <v>26</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="60">
-        <v>26</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="60">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="60">
-        <v>27</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="60">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="60">
-        <v>27</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="60">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="60">
-        <v>28</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="60">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="60">
-        <v>28</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="60">
-        <v>29</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="60">
-        <v>29</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="60">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="60">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>30</v>
       </c>
-      <c r="C62" s="60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="60">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="60">
-        <v>30</v>
-      </c>
-      <c r="C63" s="60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="60">
+      <c r="B64">
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="60">
+      <c r="B65">
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="60">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="60">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811BC1F-3E36-4C22-A80E-F98C90D88214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F721A7E5-9582-468C-AD2F-A37583CE8935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="241">
   <si>
     <t>Register Map</t>
   </si>
@@ -697,40 +697,58 @@
     <t>replacing with p-hased trigger</t>
   </si>
   <si>
-    <t>LSB-&gt; pps trig enable, middle byte LSB-&gt; phased trig enable, high byte LSB-&gt;ext trig enable</t>
-  </si>
-  <si>
     <t>beam 0 thresholds</t>
   </si>
   <si>
     <t>beam 1 thresholds</t>
   </si>
   <si>
-    <t>beam 2 thresholds</t>
-  </si>
-  <si>
-    <t>beam 3 thresholds</t>
-  </si>
-  <si>
-    <t>beam 4 thresholds</t>
-  </si>
-  <si>
-    <t>beam 5 thresholds</t>
-  </si>
-  <si>
-    <t>beam 6 thresholds</t>
-  </si>
-  <si>
-    <t>beam 7 thresholds</t>
-  </si>
-  <si>
-    <t>beam 8 thresholds</t>
-  </si>
-  <si>
-    <t>beam 9 thresholds</t>
-  </si>
-  <si>
     <t>RK 2/9/2024</t>
+  </si>
+  <si>
+    <t>Beam 0 Thresholds</t>
+  </si>
+  <si>
+    <t>Beam Threshold Block</t>
+  </si>
+  <si>
+    <t>0xffffff</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch0</t>
+  </si>
+  <si>
+    <t>lowest byte : nominal trigger thresh ; middle byte : servo trigger threshold</t>
+  </si>
+  <si>
+    <t>register address moved in FLOWER8</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch1</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch2</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch3</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch4</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch5</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch6</t>
+  </si>
+  <si>
+    <t>COINC TRIGGER-&gt; threshold ch7</t>
+  </si>
+  <si>
+    <t>LSB-&gt; pps trig enable, middle byte LSB+1-&gt; phased trig enable,,middle byte LSB-&gt; coinc trig enable high byte LSB-&gt;ext trig enable</t>
+  </si>
+  <si>
+    <t>MS 12 bits = Servo Thresholds, LS 12 bits Trigger Thresholds</t>
   </si>
 </sst>
 </file>
@@ -942,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1039,6 +1057,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1391,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="1"/>
@@ -2348,7 +2373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2361,7 +2386,7 @@
         <v>150</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -2796,7 +2821,7 @@
         <v>x54</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="32" t="s">
@@ -2815,7 +2840,7 @@
         <v>x55</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="32" t="s">
@@ -2832,14 +2857,18 @@
         <f t="shared" si="2"/>
         <v>x56</v>
       </c>
-      <c r="C93" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" s="5"/>
+      <c r="C93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -2850,10 +2879,12 @@
         <f t="shared" si="2"/>
         <v>x57</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D94" s="5"/>
+      <c r="C94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
@@ -2868,10 +2899,12 @@
         <f t="shared" si="2"/>
         <v>x58</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" s="5"/>
+      <c r="C95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
       </c>
@@ -2886,10 +2919,12 @@
         <f t="shared" si="2"/>
         <v>x59</v>
       </c>
-      <c r="C96" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" s="5"/>
+      <c r="C96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
       </c>
@@ -2904,10 +2939,12 @@
         <f t="shared" si="2"/>
         <v>x5A</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="5"/>
       <c r="E97" s="2" t="s">
         <v>7</v>
       </c>
@@ -2922,10 +2959,12 @@
         <f t="shared" si="2"/>
         <v>x5B</v>
       </c>
-      <c r="C98" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" s="5"/>
+      <c r="C98" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
@@ -2940,10 +2979,12 @@
         <f t="shared" si="2"/>
         <v>x5C</v>
       </c>
-      <c r="C99" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D99" s="5"/>
+      <c r="C99" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
       </c>
@@ -2958,10 +2999,12 @@
         <f t="shared" si="2"/>
         <v>x5D</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="5"/>
+      <c r="C100" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3574,6 +3617,1175 @@
       </c>
       <c r="F134" s="3" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>128</v>
+      </c>
+      <c r="B135" t="str">
+        <f>"x" &amp; DEC2HEX(A135,2)</f>
+        <v>x80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>129</v>
+      </c>
+      <c r="B136" s="10" t="str">
+        <f>"x" &amp; DEC2HEX(A136,2)</f>
+        <v>x81</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F136" s="46"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>130</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" ref="B137:B200" si="4">"x" &amp; DEC2HEX(A137,2)</f>
+        <v>x82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>131</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="4"/>
+        <v>x83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>132</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="4"/>
+        <v>x84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>133</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="4"/>
+        <v>x85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>134</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="4"/>
+        <v>x86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>135</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="4"/>
+        <v>x87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>136</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="4"/>
+        <v>x88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>137</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="4"/>
+        <v>x89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>138</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="4"/>
+        <v>x8A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>139</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="4"/>
+        <v>x8B</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>140</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="4"/>
+        <v>x8C</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>141</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="4"/>
+        <v>x8D</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>142</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="4"/>
+        <v>x8E</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>143</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="4"/>
+        <v>x8F</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>144</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="4"/>
+        <v>x90</v>
+      </c>
+      <c r="C151" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>145</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="4"/>
+        <v>x91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>146</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="4"/>
+        <v>x92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="4"/>
+        <v>x93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>148</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="4"/>
+        <v>x94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>149</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="4"/>
+        <v>x95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>150</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="4"/>
+        <v>x96</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>151</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="4"/>
+        <v>x97</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>152</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="4"/>
+        <v>x98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>153</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="4"/>
+        <v>x99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>154</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>x9A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>155</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>x9B</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>156</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="4"/>
+        <v>x9C</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>157</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>x9D</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>158</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>x9E</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="47">
+        <v>159</v>
+      </c>
+      <c r="B166" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>x9F</v>
+      </c>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="48"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>160</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>xA0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>161</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>xA1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>162</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="4"/>
+        <v>xA2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>163</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>xA3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>164</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="4"/>
+        <v>xA4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>165</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="4"/>
+        <v>xA5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>166</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="4"/>
+        <v>xA6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>167</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="4"/>
+        <v>xA7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>168</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="4"/>
+        <v>xA8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>169</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="4"/>
+        <v>xA9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>170</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="4"/>
+        <v>xAA</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>171</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="4"/>
+        <v>xAB</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>172</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="4"/>
+        <v>xAC</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>173</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="4"/>
+        <v>xAD</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>174</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="4"/>
+        <v>xAE</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>175</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="4"/>
+        <v>xAF</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>176</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>xB0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>177</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>xB1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>178</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="4"/>
+        <v>xB2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>179</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>xB3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>180</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>xB4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>181</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>xB5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>182</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="4"/>
+        <v>xB6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>183</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>xB7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>184</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>xB8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>185</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>xB9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>186</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="4"/>
+        <v>xBA</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>187</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="4"/>
+        <v>xBB</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>188</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="4"/>
+        <v>xBC</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>189</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="4"/>
+        <v>xBD</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>190</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="4"/>
+        <v>xBE</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>191</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="4"/>
+        <v>xBF</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>192</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="4"/>
+        <v>xC0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>193</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="4"/>
+        <v>xC1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>194</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" ref="B201:B264" si="5">"x" &amp; DEC2HEX(A201,2)</f>
+        <v>xC2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>195</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="5"/>
+        <v>xC3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>196</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="5"/>
+        <v>xC4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>197</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="5"/>
+        <v>xC5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>198</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="5"/>
+        <v>xC6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>199</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="5"/>
+        <v>xC7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>200</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="5"/>
+        <v>xC8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>201</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="5"/>
+        <v>xC9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>202</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="5"/>
+        <v>xCA</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>203</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="5"/>
+        <v>xCB</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>204</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="5"/>
+        <v>xCC</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>205</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="5"/>
+        <v>xCD</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>206</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="5"/>
+        <v>xCE</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>207</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="5"/>
+        <v>xCF</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>208</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="5"/>
+        <v>xD0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>209</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="5"/>
+        <v>xD1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>210</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="5"/>
+        <v>xD2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>211</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="5"/>
+        <v>xD3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>212</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="5"/>
+        <v>xD4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>213</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="5"/>
+        <v>xD5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>214</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="5"/>
+        <v>xD6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>215</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="5"/>
+        <v>xD7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>216</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="5"/>
+        <v>xD8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>217</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="5"/>
+        <v>xD9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>218</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="5"/>
+        <v>xDA</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>219</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="5"/>
+        <v>xDB</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>220</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="5"/>
+        <v>xDC</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>221</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="5"/>
+        <v>xDD</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>222</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="5"/>
+        <v>xDE</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>223</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="5"/>
+        <v>xDF</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>224</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="5"/>
+        <v>xE0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>225</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="5"/>
+        <v>xE1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>226</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="5"/>
+        <v>xE2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>227</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="5"/>
+        <v>xE3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>228</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="5"/>
+        <v>xE4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>229</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="5"/>
+        <v>xE5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>230</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="5"/>
+        <v>xE6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>231</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="5"/>
+        <v>xE7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>232</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="5"/>
+        <v>xE8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>233</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="5"/>
+        <v>xE9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>234</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="5"/>
+        <v>xEA</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>235</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="5"/>
+        <v>xEB</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>236</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="5"/>
+        <v>xEC</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>237</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="5"/>
+        <v>xED</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>238</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="5"/>
+        <v>xEE</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>239</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="5"/>
+        <v>xEF</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>240</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="5"/>
+        <v>xF0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>241</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="5"/>
+        <v>xF1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>242</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="5"/>
+        <v>xF2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>243</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="5"/>
+        <v>xF3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>244</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="5"/>
+        <v>xF4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>245</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="5"/>
+        <v>xF5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>246</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="5"/>
+        <v>xF6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>247</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="5"/>
+        <v>xF7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>248</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="5"/>
+        <v>xF8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>249</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="5"/>
+        <v>xF9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>250</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="5"/>
+        <v>xFA</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>251</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="5"/>
+        <v>xFB</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>252</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="5"/>
+        <v>xFC</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>253</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="5"/>
+        <v>xFD</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>254</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="5"/>
+        <v>xFE</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>255</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="5"/>
+        <v>xFF</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Documents\firmware\BEACON\FLOWER8-board-firmware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F721A7E5-9582-468C-AD2F-A37583CE8935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847262DA-EF74-48C1-B5E3-715E4BFA1076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
   <si>
     <t>Register Map</t>
   </si>
@@ -124,9 +135,6 @@
     <t>channel mask</t>
   </si>
   <si>
-    <t>trigger mask</t>
-  </si>
-  <si>
     <t>set beam bit to 0 to mask</t>
   </si>
   <si>
@@ -181,9 +189,6 @@
     <t>bit0-&gt;global reset, bit1-&gt;reset global EXCEPT register settings, bit2-&gt;reset ADC (restart+cal cycle)</t>
   </si>
   <si>
-    <t>trigger holdoff</t>
-  </si>
-  <si>
     <t>xFFFFFF</t>
   </si>
   <si>
@@ -298,12 +303,6 @@
     <t>write LSB to update, set LSB+1 to '1' to enable</t>
   </si>
   <si>
-    <t xml:space="preserve">set trigger holdoff </t>
-  </si>
-  <si>
-    <t>lower 16 bits -&gt; max trig hold off is 2^16 * 1/(93.75 MHz) = 709 microsecs</t>
-  </si>
-  <si>
     <t>bit 0 write enable, bit 1 toggle fifo write clock</t>
   </si>
   <si>
@@ -382,9 +381,6 @@
     <t>external trigger input config</t>
   </si>
   <si>
-    <t>x0001FF</t>
-  </si>
-  <si>
     <t>if LSB=0, ext trig input acts as 'gate only' for scalers</t>
   </si>
   <si>
@@ -691,18 +687,9 @@
     <t>event metadata-&gt;pps counter</t>
   </si>
   <si>
-    <t>LSB enables phased trigger;  num_beams-1 to 1 turn on beams</t>
-  </si>
-  <si>
     <t>replacing with p-hased trigger</t>
   </si>
   <si>
-    <t>beam 0 thresholds</t>
-  </si>
-  <si>
-    <t>beam 1 thresholds</t>
-  </si>
-  <si>
     <t>RK 2/9/2024</t>
   </si>
   <si>
@@ -749,6 +736,21 @@
   </si>
   <si>
     <t>MS 12 bits = Servo Thresholds, LS 12 bits Trigger Thresholds</t>
+  </si>
+  <si>
+    <t>trigger mask - upper beams</t>
+  </si>
+  <si>
+    <t>trigger mask - lower bea,s</t>
+  </si>
+  <si>
+    <t>beam mask in trigger [LSB-&gt;(num_beams-1-24)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSB enables phased trigger; </t>
+  </si>
+  <si>
+    <t>beam 41 thresholds</t>
   </si>
 </sst>
 </file>
@@ -960,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,13 +1057,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,74 +1349,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="74.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="46"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1427,7 +1430,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1436,14 +1439,14 @@
         <v>x00</v>
       </c>
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>1+A8</f>
         <v>2</v>
@@ -1474,7 +1477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A73" si="1">1+A9</f>
         <v>3</v>
@@ -1484,16 +1487,16 @@
         <v>x03</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1506,13 +1509,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1525,13 +1528,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1541,16 +1544,16 @@
         <v>x06</v>
       </c>
       <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1560,13 +1563,13 @@
         <v>x07</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1576,13 +1579,13 @@
         <v>x08</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1592,13 +1595,13 @@
         <v>x09</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1608,19 +1611,19 @@
         <v>x0A</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1630,17 +1633,17 @@
         <v>x0B</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1650,17 +1653,17 @@
         <v>x0C</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1670,17 +1673,17 @@
         <v>x0D</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1690,17 +1693,17 @@
         <v>x0E</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1710,19 +1713,19 @@
         <v>x0F</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1732,14 +1735,14 @@
         <v>x10</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1761,7 +1764,7 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1783,7 +1786,7 @@
       </c>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1794,7 +1797,7 @@
       </c>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1805,7 +1808,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1816,7 +1819,7 @@
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1827,7 +1830,7 @@
       </c>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1838,7 +1841,7 @@
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1849,7 +1852,7 @@
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1860,7 +1863,7 @@
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1882,7 +1885,7 @@
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1893,7 +1896,7 @@
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1904,7 +1907,7 @@
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1915,7 +1918,7 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1936,13 +1939,13 @@
         <v>x22</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1952,73 +1955,73 @@
         <v>x23</v>
       </c>
       <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>x24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>x25</v>
+      </c>
+      <c r="C44" t="s">
         <v>58</v>
       </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="D44" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>x24</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F44" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>x26</v>
+      </c>
+      <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="D45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>x25</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="F45" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>x26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2028,19 +2031,19 @@
         <v>x27</v>
       </c>
       <c r="C46" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>76</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2050,16 +2053,16 @@
         <v>x28</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2069,19 +2072,19 @@
         <v>x29</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2094,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2103,7 +2106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2113,7 +2116,7 @@
         <v>x2B</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2123,16 +2126,16 @@
         <v>x2C</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2142,16 +2145,16 @@
         <v>x2D</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2161,7 +2164,7 @@
         <v>x2E</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2171,16 +2174,16 @@
         <v>x2F</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2193,16 +2196,16 @@
         <v>31</v>
       </c>
       <c r="D55" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>42</v>
-      </c>
       <c r="F55" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2212,7 +2215,7 @@
         <v>x31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2222,7 +2225,7 @@
         <v>x32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2232,7 +2235,7 @@
         <v>x33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2242,7 +2245,7 @@
         <v>x34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2252,7 +2255,7 @@
         <v>x35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2262,7 +2265,7 @@
         <v>x36</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2272,7 +2275,7 @@
         <v>x37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2285,16 +2288,16 @@
         <v>21</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2307,16 +2310,16 @@
         <v>22</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2326,16 +2329,16 @@
         <v>x3A</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2345,16 +2348,16 @@
         <v>x3B</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2364,16 +2367,16 @@
         <v>x3C</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2383,19 +2386,19 @@
         <v>x3D</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2406,10 +2409,10 @@
       </c>
       <c r="D69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2420,7 +2423,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2439,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2452,13 +2455,13 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2468,16 +2471,16 @@
         <v>x42</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" ref="A74:A134" si="3">1+A73</f>
         <v>67</v>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2498,19 +2501,19 @@
         <v>x44</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2523,16 +2526,16 @@
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2543,7 +2546,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2562,10 +2565,10 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2584,10 +2587,10 @@
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -2597,7 +2600,7 @@
         <v>x49</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2610,7 +2613,7 @@
       <c r="D81" s="8"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2620,19 +2623,19 @@
         <v>x4B</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2642,19 +2645,19 @@
         <v>x4C</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2664,19 +2667,19 @@
         <v>x4D</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2686,19 +2689,19 @@
         <v>x4E</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="E85" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2711,7 +2714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2721,47 +2724,41 @@
         <v>x50</v>
       </c>
       <c r="C87" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F87" s="33" t="s">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B88" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>x51</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B88" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>x51</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E88" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F88" s="33"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -2771,22 +2768,20 @@
         <v>x52</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2796,22 +2791,22 @@
         <v>x53</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -2820,9 +2815,7 @@
         <f t="shared" si="2"/>
         <v>x54</v>
       </c>
-      <c r="C91" s="32" t="s">
-        <v>223</v>
-      </c>
+      <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="32" t="s">
         <v>7</v>
@@ -2830,7 +2823,7 @@
       <c r="F91" s="33"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -2839,16 +2832,14 @@
         <f t="shared" si="2"/>
         <v>x55</v>
       </c>
-      <c r="C92" s="32" t="s">
-        <v>224</v>
-      </c>
+      <c r="C92" s="32"/>
       <c r="D92" s="33"/>
       <c r="E92" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="33"/>
     </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -2858,19 +2849,19 @@
         <v>x56</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -2880,17 +2871,17 @@
         <v>x57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -2900,17 +2891,17 @@
         <v>x58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -2920,17 +2911,17 @@
         <v>x59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2940,17 +2931,17 @@
         <v>x5A</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -2960,17 +2951,17 @@
         <v>x5B</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -2980,17 +2971,17 @@
         <v>x5C</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -3000,17 +2991,17 @@
         <v>x5D</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -3020,16 +3011,16 @@
         <v>x5E</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -3039,17 +3030,17 @@
         <v>x5F</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -3059,19 +3050,19 @@
         <v>x60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -3081,17 +3072,17 @@
         <v>x61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -3101,16 +3092,16 @@
         <v>x62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -3120,16 +3111,16 @@
         <v>x63</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E106" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -3142,7 +3133,7 @@
       <c r="D107" s="42"/>
       <c r="E107" s="41"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -3152,7 +3143,7 @@
         <v>x65</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -3162,16 +3153,16 @@
         <v>x66</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -3181,16 +3172,16 @@
         <v>x67</v>
       </c>
       <c r="C110" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D110" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="F110" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -3200,62 +3191,62 @@
         <v>x68</v>
       </c>
       <c r="C111" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B112" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x69</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B113" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6A</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F111" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B112" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x69</v>
-      </c>
-      <c r="C112" s="19" t="s">
+      <c r="F113" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B114" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6B</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="19">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B113" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6A</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B114" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6B</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="D114" s="43"/>
       <c r="F114" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -3265,19 +3256,19 @@
         <v>x6C</v>
       </c>
       <c r="C115" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" t="s">
         <v>87</v>
-      </c>
-      <c r="D115" t="s">
-        <v>89</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -3287,7 +3278,7 @@
         <v>x6D</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -3296,10 +3287,10 @@
         <v>19</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -3309,222 +3300,222 @@
         <v>x6E</v>
       </c>
       <c r="C117" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B118" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x6F</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x70</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x71</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x72</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="19">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B122" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x73</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19">
-        <f t="shared" si="3"/>
+      <c r="D122" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x74</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x75</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B125" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x76</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="19">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x77</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x78</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>x79</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6F</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x70</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x71</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="19">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B121" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x72</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B122" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x73</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x74</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x75</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x76</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x77</v>
-      </c>
-      <c r="C126" s="19" t="s">
+      <c r="D128" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D126" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x78</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B128" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x79</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="F128" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -3534,7 +3525,7 @@
         <v>x7A</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -3544,13 +3535,13 @@
         <v>x7B</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -3560,13 +3551,13 @@
         <v>x7C</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -3578,7 +3569,7 @@
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -3588,16 +3579,16 @@
         <v>x7E</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="37">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -3610,16 +3601,16 @@
         <v>5</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>128</v>
       </c>
@@ -3628,7 +3619,7 @@
         <v>x80</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>129</v>
       </c>
@@ -3637,17 +3628,17 @@
         <v>x81</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F136" s="46"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F136" s="44"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>130</v>
       </c>
@@ -3656,7 +3647,7 @@
         <v>x82</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>131</v>
       </c>
@@ -3665,7 +3656,7 @@
         <v>x83</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>132</v>
       </c>
@@ -3674,7 +3665,7 @@
         <v>x84</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>133</v>
       </c>
@@ -3683,7 +3674,7 @@
         <v>x85</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>134</v>
       </c>
@@ -3692,7 +3683,7 @@
         <v>x86</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>135</v>
       </c>
@@ -3701,7 +3692,7 @@
         <v>x87</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>136</v>
       </c>
@@ -3710,7 +3701,7 @@
         <v>x88</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>137</v>
       </c>
@@ -3719,7 +3710,7 @@
         <v>x89</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>138</v>
       </c>
@@ -3728,7 +3719,7 @@
         <v>x8A</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>139</v>
       </c>
@@ -3737,7 +3728,7 @@
         <v>x8B</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>140</v>
       </c>
@@ -3746,7 +3737,7 @@
         <v>x8C</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>141</v>
       </c>
@@ -3755,7 +3746,7 @@
         <v>x8D</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>142</v>
       </c>
@@ -3764,7 +3755,7 @@
         <v>x8E</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>143</v>
       </c>
@@ -3773,7 +3764,7 @@
         <v>x8F</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>144</v>
       </c>
@@ -3782,10 +3773,10 @@
         <v>x90</v>
       </c>
       <c r="C151" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>145</v>
       </c>
@@ -3794,7 +3785,7 @@
         <v>x91</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>146</v>
       </c>
@@ -3803,7 +3794,7 @@
         <v>x92</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>147</v>
       </c>
@@ -3812,7 +3803,7 @@
         <v>x93</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>148</v>
       </c>
@@ -3821,7 +3812,7 @@
         <v>x94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>149</v>
       </c>
@@ -3830,7 +3821,7 @@
         <v>x95</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>150</v>
       </c>
@@ -3839,7 +3830,7 @@
         <v>x96</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>151</v>
       </c>
@@ -3848,7 +3839,7 @@
         <v>x97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>152</v>
       </c>
@@ -3857,7 +3848,7 @@
         <v>x98</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>153</v>
       </c>
@@ -3866,7 +3857,7 @@
         <v>x99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>154</v>
       </c>
@@ -3875,7 +3866,7 @@
         <v>x9A</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>155</v>
       </c>
@@ -3884,7 +3875,7 @@
         <v>x9B</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>156</v>
       </c>
@@ -3893,7 +3884,7 @@
         <v>x9C</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>157</v>
       </c>
@@ -3902,7 +3893,7 @@
         <v>x9D</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>158</v>
       </c>
@@ -3911,20 +3902,20 @@
         <v>x9E</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="47">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="48">
         <v>159</v>
       </c>
-      <c r="B166" s="47" t="str">
+      <c r="B166" s="48" t="str">
         <f t="shared" si="4"/>
         <v>x9F</v>
       </c>
-      <c r="C166" s="47"/>
-      <c r="D166" s="47"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="48"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="49"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>160</v>
       </c>
@@ -3933,7 +3924,7 @@
         <v>xA0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>161</v>
       </c>
@@ -3942,7 +3933,7 @@
         <v>xA1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>162</v>
       </c>
@@ -3951,7 +3942,7 @@
         <v>xA2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>163</v>
       </c>
@@ -3960,7 +3951,7 @@
         <v>xA3</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>164</v>
       </c>
@@ -3969,7 +3960,7 @@
         <v>xA4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>165</v>
       </c>
@@ -3978,7 +3969,7 @@
         <v>xA5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>166</v>
       </c>
@@ -3987,7 +3978,7 @@
         <v>xA6</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>167</v>
       </c>
@@ -3996,7 +3987,7 @@
         <v>xA7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>168</v>
       </c>
@@ -4005,7 +3996,7 @@
         <v>xA8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>169</v>
       </c>
@@ -4014,7 +4005,7 @@
         <v>xA9</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>170</v>
       </c>
@@ -4023,7 +4014,7 @@
         <v>xAA</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>171</v>
       </c>
@@ -4031,8 +4022,12 @@
         <f t="shared" si="4"/>
         <v>xAB</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D178" s="45"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>172</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>xAC</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>173</v>
       </c>
@@ -4050,7 +4045,7 @@
         <v>xAD</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>174</v>
       </c>
@@ -4059,7 +4054,7 @@
         <v>xAE</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>175</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>xAF</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>176</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>xB0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>177</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>xB1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>178</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>xB2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>179</v>
       </c>
@@ -4104,7 +4099,7 @@
         <v>xB3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>180</v>
       </c>
@@ -4113,7 +4108,7 @@
         <v>xB4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>181</v>
       </c>
@@ -4122,7 +4117,7 @@
         <v>xB5</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>182</v>
       </c>
@@ -4131,7 +4126,7 @@
         <v>xB6</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>183</v>
       </c>
@@ -4140,7 +4135,7 @@
         <v>xB7</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>184</v>
       </c>
@@ -4149,7 +4144,7 @@
         <v>xB8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>185</v>
       </c>
@@ -4158,7 +4153,7 @@
         <v>xB9</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>186</v>
       </c>
@@ -4167,7 +4162,7 @@
         <v>xBA</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>187</v>
       </c>
@@ -4176,7 +4171,7 @@
         <v>xBB</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>188</v>
       </c>
@@ -4185,7 +4180,7 @@
         <v>xBC</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>189</v>
       </c>
@@ -4194,7 +4189,7 @@
         <v>xBD</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>190</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>xBE</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>191</v>
       </c>
@@ -4212,7 +4207,7 @@
         <v>xBF</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>192</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>xC0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>193</v>
       </c>
@@ -4230,16 +4225,16 @@
         <v>xC1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>194</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" ref="B201:B264" si="5">"x" &amp; DEC2HEX(A201,2)</f>
+        <f t="shared" ref="B201:B262" si="5">"x" &amp; DEC2HEX(A201,2)</f>
         <v>xC2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>195</v>
       </c>
@@ -4248,7 +4243,7 @@
         <v>xC3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>196</v>
       </c>
@@ -4257,7 +4252,7 @@
         <v>xC4</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>197</v>
       </c>
@@ -4266,7 +4261,7 @@
         <v>xC5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>198</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>xC6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>199</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>xC7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>200</v>
       </c>
@@ -4293,7 +4288,7 @@
         <v>xC8</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>201</v>
       </c>
@@ -4302,7 +4297,7 @@
         <v>xC9</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>202</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>xCA</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>203</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>xCB</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>204</v>
       </c>
@@ -4329,7 +4324,7 @@
         <v>xCC</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>205</v>
       </c>
@@ -4338,7 +4333,7 @@
         <v>xCD</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>206</v>
       </c>
@@ -4347,7 +4342,7 @@
         <v>xCE</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>207</v>
       </c>
@@ -4356,7 +4351,7 @@
         <v>xCF</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>208</v>
       </c>
@@ -4365,7 +4360,7 @@
         <v>xD0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>209</v>
       </c>
@@ -4374,7 +4369,7 @@
         <v>xD1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>210</v>
       </c>
@@ -4383,7 +4378,7 @@
         <v>xD2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>211</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>xD3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>212</v>
       </c>
@@ -4401,7 +4396,7 @@
         <v>xD4</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>213</v>
       </c>
@@ -4410,7 +4405,7 @@
         <v>xD5</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>214</v>
       </c>
@@ -4419,7 +4414,7 @@
         <v>xD6</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>215</v>
       </c>
@@ -4428,7 +4423,7 @@
         <v>xD7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>216</v>
       </c>
@@ -4437,7 +4432,7 @@
         <v>xD8</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>217</v>
       </c>
@@ -4446,7 +4441,7 @@
         <v>xD9</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>218</v>
       </c>
@@ -4455,7 +4450,7 @@
         <v>xDA</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>219</v>
       </c>
@@ -4464,7 +4459,7 @@
         <v>xDB</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>220</v>
       </c>
@@ -4473,7 +4468,7 @@
         <v>xDC</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>221</v>
       </c>
@@ -4482,7 +4477,7 @@
         <v>xDD</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>222</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>xDE</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>223</v>
       </c>
@@ -4500,7 +4495,7 @@
         <v>xDF</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>224</v>
       </c>
@@ -4509,7 +4504,7 @@
         <v>xE0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>225</v>
       </c>
@@ -4518,7 +4513,7 @@
         <v>xE1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>226</v>
       </c>
@@ -4527,7 +4522,7 @@
         <v>xE2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>227</v>
       </c>
@@ -4536,7 +4531,7 @@
         <v>xE3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>228</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>xE4</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>229</v>
       </c>
@@ -4554,7 +4549,7 @@
         <v>xE5</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>230</v>
       </c>
@@ -4563,7 +4558,7 @@
         <v>xE6</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>231</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>xE7</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>232</v>
       </c>
@@ -4581,7 +4576,7 @@
         <v>xE8</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>233</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>xE9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>234</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>xEA</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>235</v>
       </c>
@@ -4608,7 +4603,7 @@
         <v>xEB</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>236</v>
       </c>
@@ -4617,7 +4612,7 @@
         <v>xEC</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>237</v>
       </c>
@@ -4626,7 +4621,7 @@
         <v>xED</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>238</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>xEE</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>239</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>xEF</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>240</v>
       </c>
@@ -4653,7 +4648,7 @@
         <v>xF0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>241</v>
       </c>
@@ -4662,7 +4657,7 @@
         <v>xF1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>242</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>xF2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>243</v>
       </c>
@@ -4680,7 +4675,7 @@
         <v>xF3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>244</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>xF4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>245</v>
       </c>
@@ -4698,7 +4693,7 @@
         <v>xF5</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>246</v>
       </c>
@@ -4707,7 +4702,7 @@
         <v>xF6</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>247</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>xF7</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>248</v>
       </c>
@@ -4725,7 +4720,7 @@
         <v>xF8</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>249</v>
       </c>
@@ -4734,7 +4729,7 @@
         <v>xF9</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>250</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>xFA</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>251</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>xFB</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>252</v>
       </c>
@@ -4761,7 +4756,7 @@
         <v>xFC</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>253</v>
       </c>
@@ -4770,7 +4765,7 @@
         <v>xFD</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>254</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>xFE</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>255</v>
       </c>
@@ -4809,33 +4804,33 @@
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4843,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4858,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A63" si="0">A3+1</f>
         <v>2</v>
@@ -4873,13 +4868,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4888,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4903,13 +4898,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4918,13 +4913,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4933,13 +4928,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4948,13 +4943,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4963,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4978,13 +4973,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4993,13 +4988,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5008,13 +5003,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5023,13 +5018,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5038,13 +5033,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5053,13 +5048,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5068,13 +5063,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5083,13 +5078,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5098,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5113,13 +5108,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5128,13 +5123,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5143,13 +5138,13 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5158,13 +5153,13 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5173,13 +5168,13 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5188,13 +5183,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5203,13 +5198,13 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5218,13 +5213,13 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5233,13 +5228,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5248,13 +5243,13 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5263,13 +5258,13 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5278,13 +5273,13 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5293,13 +5288,13 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5308,13 +5303,13 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5323,13 +5318,13 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5338,13 +5333,13 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5353,13 +5348,13 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
         <v>199</v>
       </c>
-      <c r="D36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5368,13 +5363,13 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5383,13 +5378,13 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5398,13 +5393,13 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5413,13 +5408,13 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5428,13 +5423,13 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5443,16 +5438,16 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
         <v>205</v>
       </c>
-      <c r="E42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5461,13 +5456,13 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5476,13 +5471,13 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5491,13 +5486,13 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5506,13 +5501,13 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5521,13 +5516,13 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5536,13 +5531,13 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5551,13 +5546,13 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5566,13 +5561,13 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5581,13 +5576,13 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5596,13 +5591,13 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5611,13 +5606,13 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5626,13 +5621,13 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5641,13 +5636,13 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5656,13 +5651,13 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5671,13 +5666,13 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="D57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5686,13 +5681,13 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5701,13 +5696,13 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5716,13 +5711,13 @@
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5731,13 +5726,13 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5746,10 +5741,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5758,10 +5753,10 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5769,10 +5764,10 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5780,23 +5775,23 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Documents\firmware\BEACON\FLOWER8-board-firmware\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Documents\firmware\BEACON\dev\FLOWER8-board-firmware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847262DA-EF74-48C1-B5E3-715E4BFA1076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288889D3-EABD-42CB-A0E7-BEDCF2FC3D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="242">
   <si>
     <t>Register Map</t>
   </si>
@@ -168,9 +168,6 @@
     <t>pick scaler to read</t>
   </si>
   <si>
-    <t>write something between 0x0 and 0xF, scaler to read pops up in read-register 3</t>
-  </si>
-  <si>
     <t>scaler_to_read</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>read_only - event meta data [lowest 4 bits=trigger type, bit16=pps flag]</t>
   </si>
   <si>
-    <t>currently 32 scalers registers (12 bits per scaler, 2 scalers per 24 bit register)</t>
-  </si>
-  <si>
     <t>data in max_address location may not be useful</t>
   </si>
   <si>
@@ -669,9 +663,6 @@
     <t>lsb=1 is 100Hz, lsb=0 is 100mHz [default]</t>
   </si>
   <si>
-    <t>event metadata-&gt;trig</t>
-  </si>
-  <si>
     <t>read_only - event meta data -- low 8 bits latched trigger channels</t>
   </si>
   <si>
@@ -741,9 +732,6 @@
     <t>trigger mask - upper beams</t>
   </si>
   <si>
-    <t>trigger mask - lower bea,s</t>
-  </si>
-  <si>
     <t>beam mask in trigger [LSB-&gt;(num_beams-1-24)]</t>
   </si>
   <si>
@@ -751,6 +739,30 @@
   </si>
   <si>
     <t>beam 41 thresholds</t>
+  </si>
+  <si>
+    <t>event metadata-&gt;coinc_trig</t>
+  </si>
+  <si>
+    <t>event_metadata-&gt;phased_trig_low</t>
+  </si>
+  <si>
+    <t>read_only - event meta data - lower 24 beams</t>
+  </si>
+  <si>
+    <t>event_metadata-&gt;phased_trig_high</t>
+  </si>
+  <si>
+    <t>read_only - event meta data - upper 18 beams</t>
+  </si>
+  <si>
+    <t>318 scaler registers (12 bits per scaler, 2 scalers per 24 bit register)</t>
+  </si>
+  <si>
+    <t>write something between 0x0 and 0x1F, scaler to read pops up in read-register 3</t>
+  </si>
+  <si>
+    <t>trigger mask - lower beams</t>
   </si>
 </sst>
 </file>
@@ -962,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1063,10 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1394,7 +1402,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="1"/>
@@ -1416,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1439,10 +1447,10 @@
         <v>x00</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7"/>
     </row>
@@ -1487,13 +1495,13 @@
         <v>x03</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1512,7 +1520,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1544,13 +1552,13 @@
         <v>x06</v>
       </c>
       <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1566,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,7 +1587,7 @@
         <v>x08</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>16</v>
@@ -1595,7 +1603,7 @@
         <v>x09</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>16</v>
@@ -1611,16 +1619,16 @@
         <v>x0A</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1633,10 +1641,10 @@
         <v>x0B</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1653,10 +1661,10 @@
         <v>x0C</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1673,10 +1681,10 @@
         <v>x0D</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1693,10 +1701,10 @@
         <v>x0E</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1713,16 +1721,16 @@
         <v>x0F</v>
       </c>
       <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
         <v>155</v>
-      </c>
-      <c r="D22" t="s">
-        <v>156</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1735,10 +1743,13 @@
         <v>x10</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -1751,6 +1762,15 @@
         <f t="shared" si="0"/>
         <v>x11</v>
       </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1762,6 +1782,15 @@
         <f t="shared" si="0"/>
         <v>x12</v>
       </c>
+      <c r="C25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1939,7 +1968,7 @@
         <v>x22</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -1955,13 +1984,13 @@
         <v>x23</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1974,13 +2003,13 @@
         <v>x24</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1993,13 +2022,13 @@
         <v>x25</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,13 +2041,13 @@
         <v>x26</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2031,16 +2060,16 @@
         <v>x27</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2053,10 +2082,10 @@
         <v>x28</v>
       </c>
       <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
         <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -2075,13 +2104,13 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2097,7 +2126,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2126,13 +2155,13 @@
         <v>x2C</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,13 +2174,13 @@
         <v>x2D</v>
       </c>
       <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2174,10 +2203,10 @@
         <v>x2F</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -2202,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2288,13 +2317,13 @@
         <v>21</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2310,13 +2339,13 @@
         <v>22</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,10 +2358,10 @@
         <v>x3A</v>
       </c>
       <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -2348,10 +2377,10 @@
         <v>x3B</v>
       </c>
       <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -2367,10 +2396,10 @@
         <v>x3C</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -2386,16 +2415,16 @@
         <v>x3D</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2409,7 +2438,7 @@
       </c>
       <c r="D69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -2471,13 +2500,13 @@
         <v>x42</v>
       </c>
       <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2501,16 +2530,16 @@
         <v>x44</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2555,13 @@
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2565,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2587,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,16 +2652,16 @@
         <v>x4B</v>
       </c>
       <c r="C82" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="36" t="s">
         <v>113</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,13 +2677,13 @@
         <v>34</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2667,16 +2696,16 @@
         <v>x4D</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2698,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2723,16 +2752,16 @@
         <f t="shared" si="2"/>
         <v>x50</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" s="33" t="s">
+      <c r="C87" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G87" s="6"/>
@@ -2746,16 +2775,16 @@
         <f t="shared" si="2"/>
         <v>x51</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88" s="33" t="s">
+      <c r="C88" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="33"/>
+      <c r="E88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2768,16 +2797,16 @@
         <v>x52</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -2791,19 +2820,19 @@
         <v>x53</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="G90" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2849,16 +2878,16 @@
         <v>x56</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2871,10 +2900,10 @@
         <v>x57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -2891,10 +2920,10 @@
         <v>x58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -2911,10 +2940,10 @@
         <v>x59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
@@ -2931,10 +2960,10 @@
         <v>x5A</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -2951,10 +2980,10 @@
         <v>x5B</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
@@ -2971,10 +3000,10 @@
         <v>x5C</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -2991,10 +3020,10 @@
         <v>x5D</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
@@ -3011,10 +3040,10 @@
         <v>x5E</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3030,13 +3059,13 @@
         <v>x5F</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F102" s="5"/>
     </row>
@@ -3050,16 +3079,16 @@
         <v>x60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3072,10 +3101,10 @@
         <v>x61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>7</v>
@@ -3092,13 +3121,13 @@
         <v>x62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3111,10 +3140,10 @@
         <v>x63</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E106" s="41" t="s">
         <v>7</v>
@@ -3153,13 +3182,13 @@
         <v>x66</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3172,13 +3201,13 @@
         <v>x67</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3191,10 +3220,10 @@
         <v>x68</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3207,10 +3236,10 @@
         <v>x69</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3223,10 +3252,10 @@
         <v>x6A</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3239,11 +3268,11 @@
         <v>x6B</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D114" s="43"/>
       <c r="F114" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,16 +3285,16 @@
         <v>x6C</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3278,7 +3307,7 @@
         <v>x6D</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -3287,7 +3316,7 @@
         <v>19</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3300,13 +3329,13 @@
         <v>x6E</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3319,13 +3348,13 @@
         <v>x6F</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3338,13 +3367,13 @@
         <v>x70</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3357,13 +3386,13 @@
         <v>x71</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3376,13 +3405,13 @@
         <v>x72</v>
       </c>
       <c r="C121" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="F121" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3395,13 +3424,13 @@
         <v>x73</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3414,13 +3443,13 @@
         <v>x74</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3433,13 +3462,13 @@
         <v>x75</v>
       </c>
       <c r="C124" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D124" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="F124" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3452,13 +3481,13 @@
         <v>x76</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3471,13 +3500,13 @@
         <v>x77</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3490,10 +3519,10 @@
         <v>x78</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3506,13 +3535,13 @@
         <v>x79</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3535,10 +3564,10 @@
         <v>x7B</v>
       </c>
       <c r="C130" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F130" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -3551,10 +3580,10 @@
         <v>x7C</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3579,10 +3608,10 @@
         <v>x7E</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3601,13 +3630,13 @@
         <v>5</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3628,13 +3657,13 @@
         <v>x81</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F136" s="44"/>
     </row>
@@ -3773,7 +3802,7 @@
         <v>x90</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3857,7 +3886,7 @@
         <v>x99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>154</v>
       </c>
@@ -3866,7 +3895,7 @@
         <v>x9A</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>155</v>
       </c>
@@ -3875,7 +3904,7 @@
         <v>x9B</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>156</v>
       </c>
@@ -3884,7 +3913,7 @@
         <v>x9C</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>157</v>
       </c>
@@ -3893,7 +3922,7 @@
         <v>x9D</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>158</v>
       </c>
@@ -3902,20 +3931,16 @@
         <v>x9E</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="48">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>159</v>
       </c>
-      <c r="B166" s="48" t="str">
+      <c r="B166" t="str">
         <f t="shared" si="4"/>
         <v>x9F</v>
       </c>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="49"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>160</v>
       </c>
@@ -3924,7 +3949,7 @@
         <v>xA0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>161</v>
       </c>
@@ -3933,7 +3958,7 @@
         <v>xA1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>162</v>
       </c>
@@ -3942,7 +3967,7 @@
         <v>xA2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>163</v>
       </c>
@@ -3951,7 +3976,7 @@
         <v>xA3</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>164</v>
       </c>
@@ -3960,7 +3985,7 @@
         <v>xA4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>165</v>
       </c>
@@ -3969,7 +3994,7 @@
         <v>xA5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>166</v>
       </c>
@@ -3978,7 +4003,7 @@
         <v>xA6</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>167</v>
       </c>
@@ -3987,7 +4012,7 @@
         <v>xA7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>168</v>
       </c>
@@ -3996,7 +4021,7 @@
         <v>xA8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>169</v>
       </c>
@@ -4023,7 +4048,7 @@
         <v>xAB</v>
       </c>
       <c r="C178" s="45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D178" s="45"/>
     </row>
@@ -4815,19 +4840,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4838,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4853,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4868,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4898,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4913,10 +4938,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4928,10 +4953,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,10 +4968,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4958,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4973,10 +4998,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4988,10 +5013,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,10 +5028,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5018,10 +5043,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5033,10 +5058,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5048,10 +5073,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5063,10 +5088,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5078,10 +5103,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,10 +5118,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,10 +5133,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5123,10 +5148,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5138,10 +5163,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5153,10 +5178,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5168,10 +5193,10 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5183,10 +5208,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5198,10 +5223,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,10 +5238,10 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,10 +5253,10 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5243,10 +5268,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5258,10 +5283,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5273,10 +5298,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5288,10 +5313,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5303,10 +5328,10 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5318,10 +5343,10 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5333,10 +5358,10 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -5348,10 +5373,10 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -5363,10 +5388,10 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -5378,10 +5403,10 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -5393,10 +5418,10 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -5408,10 +5433,10 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -5423,10 +5448,10 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -5438,13 +5463,13 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5456,10 +5481,10 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -5471,10 +5496,10 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5486,10 +5511,10 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5501,10 +5526,10 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -5516,10 +5541,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5531,10 +5556,10 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5546,10 +5571,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5561,10 +5586,10 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5576,10 +5601,10 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,10 +5616,10 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,10 +5631,10 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5621,10 +5646,10 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5636,10 +5661,10 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,10 +5676,10 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5666,10 +5691,10 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5681,10 +5706,10 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,10 +5721,10 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5711,10 +5736,10 @@
         <v>29</v>
       </c>
       <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
         <v>198</v>
-      </c>
-      <c r="D60" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,10 +5751,10 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" t="s">
         <v>198</v>
-      </c>
-      <c r="D61" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5741,7 +5766,7 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5753,7 +5778,7 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5764,7 +5789,7 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5775,7 +5800,7 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -5783,7 +5808,7 @@
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5791,7 +5816,7 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Documents\firmware\BEACON\dev\FLOWER8-board-firmware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288889D3-EABD-42CB-A0E7-BEDCF2FC3D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D403EF-EDAA-4700-AE43-F4A9B7F81900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,6 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,7 +2512,7 @@
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" ref="A74:A134" si="3">1+A73</f>
+        <f t="shared" ref="A74:A136" si="3">1+A73</f>
         <v>67</v>
       </c>
       <c r="B74" s="16" t="str">
@@ -3640,32 +3641,34 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="10">
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B135" s="10" t="str">
         <f>"x" &amp; DEC2HEX(A135,2)</f>
         <v>x80</v>
       </c>
+      <c r="C135" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F135" s="44"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
+      <c r="A136">
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B136" s="10" t="str">
+      <c r="B136" s="48" t="str">
         <f>"x" &amp; DEC2HEX(A136,2)</f>
         <v>x81</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F136" s="44"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
@@ -4038,6 +4041,10 @@
         <f t="shared" si="4"/>
         <v>xAA</v>
       </c>
+      <c r="C177" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D177" s="45"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
@@ -4047,10 +4054,6 @@
         <f t="shared" si="4"/>
         <v>xAB</v>
       </c>
-      <c r="C178" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D178" s="45"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">

--- a/doc/flower8-register-map.xlsx
+++ b/doc/flower8-register-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryank\Documents\firmware\BEACON\dev\FLOWER8-board-firmware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D403EF-EDAA-4700-AE43-F4A9B7F81900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703FE3F3-F35E-4385-95AE-397F92C48CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="287">
   <si>
     <t>Register Map</t>
   </si>
@@ -636,9 +636,6 @@
     <t>100Hz</t>
   </si>
   <si>
-    <t>1Hz scaler update counter</t>
-  </si>
-  <si>
     <t>all 12 bits -- 2 scalers per scaler adr</t>
   </si>
   <si>
@@ -763,6 +760,144 @@
   </si>
   <si>
     <t>trigger mask - lower beams</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>Phased Trigger</t>
+  </si>
+  <si>
+    <t>Beam 0 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 1 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 2 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 3 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 4 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 5 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 6 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 7 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 8 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 9 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 10 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 11 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 12 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 13 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 14 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 15 Trigger</t>
+  </si>
+  <si>
+    <t>Phased Servo</t>
+  </si>
+  <si>
+    <t>Beam 0 Servo</t>
+  </si>
+  <si>
+    <t>Beam 1 Servo</t>
+  </si>
+  <si>
+    <t>Beam 2 Servo</t>
+  </si>
+  <si>
+    <t>Beam 3 Servo</t>
+  </si>
+  <si>
+    <t>Beam 4 Servo</t>
+  </si>
+  <si>
+    <t>Beam 5 Servo</t>
+  </si>
+  <si>
+    <t>Beam 6 Servo</t>
+  </si>
+  <si>
+    <t>Beam 7 Servo</t>
+  </si>
+  <si>
+    <t>Beam 8 Servo</t>
+  </si>
+  <si>
+    <t>Beam 9 Servo</t>
+  </si>
+  <si>
+    <t>Beam 10 Servo</t>
+  </si>
+  <si>
+    <t>Beam 11 Servo</t>
+  </si>
+  <si>
+    <t>Beam 12 Servo</t>
+  </si>
+  <si>
+    <t>Beam 13 Servo</t>
+  </si>
+  <si>
+    <t>Beam 14 Servo</t>
+  </si>
+  <si>
+    <t>Beam 15 Servo</t>
+  </si>
+  <si>
+    <t>1Hz Gated</t>
+  </si>
+  <si>
+    <t>Beam 16 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 17 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 18 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 19 Trigger</t>
+  </si>
+  <si>
+    <t>Beam 16 Servo</t>
+  </si>
+  <si>
+    <t>Beam 17 Servo</t>
+  </si>
+  <si>
+    <t>Beam 18 Servo</t>
+  </si>
+  <si>
+    <t>Beam 19 Servo</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,7 +1210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1537,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="1"/>
@@ -1662,7 +1796,7 @@
         <v>x0C</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1744,10 +1878,10 @@
         <v>x10</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1764,10 +1898,10 @@
         <v>x11</v>
       </c>
       <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
         <v>235</v>
-      </c>
-      <c r="D24" t="s">
-        <v>236</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1784,10 +1918,10 @@
         <v>x12</v>
       </c>
       <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" t="s">
         <v>237</v>
-      </c>
-      <c r="D25" t="s">
-        <v>238</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -2105,13 +2239,13 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2204,10 +2338,10 @@
         <v>x2F</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -2419,13 +2553,13 @@
         <v>144</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2754,10 +2888,10 @@
         <v>x50</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>49</v>
@@ -2777,7 +2911,7 @@
         <v>x51</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>33</v>
@@ -2801,7 +2935,7 @@
         <v>111</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>7</v>
@@ -2833,7 +2967,7 @@
         <v>123</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,16 +3013,16 @@
         <v>x56</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2901,10 +3035,10 @@
         <v>x57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -2921,10 +3055,10 @@
         <v>x58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -2941,10 +3075,10 @@
         <v>x59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
@@ -2961,10 +3095,10 @@
         <v>x5A</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -2981,10 +3115,10 @@
         <v>x5B</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
@@ -3001,10 +3135,10 @@
         <v>x5C</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -3021,10 +3155,10 @@
         <v>x5D</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
@@ -3089,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3122,13 +3256,13 @@
         <v>x62</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3650,13 +3784,13 @@
         <v>x80</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F135" s="44"/>
     </row>
@@ -3665,7 +3799,7 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B136" s="48" t="str">
+      <c r="B136" t="str">
         <f>"x" &amp; DEC2HEX(A136,2)</f>
         <v>x81</v>
       </c>
@@ -3805,7 +3939,7 @@
         <v>x90</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4042,7 +4176,7 @@
         <v>xAA</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D177" s="45"/>
     </row>
@@ -4825,11 +4959,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4855,51 +4989,45 @@
         <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>FLOOR(A2/2,1)</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
+        <f>FLOOR(A3/2,1)</f>
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A63" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
+        <f>FLOOR(A4/2,1)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4908,13 +5036,11 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <f>FLOOR(A5/2,1)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,13 +5049,11 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" ref="B6:B69" si="1">FLOOR(A6/2,1)</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4938,13 +5062,11 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4953,10 +5075,11 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
         <v>176</v>
@@ -4968,10 +5091,11 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -4983,10 +5107,11 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
         <v>176</v>
@@ -4998,10 +5123,11 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
         <v>176</v>
@@ -5013,10 +5139,11 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
@@ -5028,10 +5155,11 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
@@ -5043,10 +5171,11 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
         <v>176</v>
@@ -5058,10 +5187,11 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
         <v>176</v>
@@ -5073,10 +5203,11 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
         <v>176</v>
@@ -5088,10 +5219,11 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
         <v>176</v>
@@ -5103,10 +5235,11 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
         <v>176</v>
@@ -5118,10 +5251,11 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
         <v>176</v>
@@ -5133,10 +5267,11 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
         <v>176</v>
@@ -5148,10 +5283,11 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
         <v>176</v>
@@ -5163,13 +5299,14 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,13 +5315,14 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5193,13 +5331,14 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5208,13 +5347,14 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5223,13 +5363,14 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,13 +5379,14 @@
         <v>25</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5253,10 +5395,11 @@
         <v>26</v>
       </c>
       <c r="B28">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -5268,10 +5411,11 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
         <v>197</v>
@@ -5283,10 +5427,11 @@
         <v>28</v>
       </c>
       <c r="B30">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -5298,10 +5443,11 @@
         <v>29</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
         <v>197</v>
@@ -5313,10 +5459,11 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -5328,10 +5475,11 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
         <v>197</v>
@@ -5343,10 +5491,11 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -5358,10 +5507,11 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
         <v>197</v>
@@ -5373,10 +5523,11 @@
         <v>34</v>
       </c>
       <c r="B36">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
         <v>197</v>
@@ -5388,10 +5539,11 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
         <v>197</v>
@@ -5403,10 +5555,11 @@
         <v>36</v>
       </c>
       <c r="B38">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
         <v>197</v>
@@ -5418,10 +5571,11 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
         <v>197</v>
@@ -5433,10 +5587,11 @@
         <v>38</v>
       </c>
       <c r="B40">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
         <v>197</v>
@@ -5448,10 +5603,11 @@
         <v>39</v>
       </c>
       <c r="B41">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
         <v>197</v>
@@ -5463,16 +5619,14 @@
         <v>40</v>
       </c>
       <c r="B42">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5481,13 +5635,14 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -5496,13 +5651,14 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5511,13 +5667,17 @@
         <v>43</v>
       </c>
       <c r="B45">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5526,13 +5686,14 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -5541,13 +5702,14 @@
         <v>45</v>
       </c>
       <c r="B47">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5556,10 +5718,11 @@
         <v>46</v>
       </c>
       <c r="B48">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
         <v>198</v>
@@ -5571,10 +5734,11 @@
         <v>47</v>
       </c>
       <c r="B49">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -5586,10 +5750,11 @@
         <v>48</v>
       </c>
       <c r="B50">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
         <v>198</v>
@@ -5601,10 +5766,11 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
         <v>198</v>
@@ -5616,10 +5782,11 @@
         <v>50</v>
       </c>
       <c r="B52">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
         <v>198</v>
@@ -5631,10 +5798,11 @@
         <v>51</v>
       </c>
       <c r="B53">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
         <v>198</v>
@@ -5646,10 +5814,11 @@
         <v>52</v>
       </c>
       <c r="B54">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
         <v>198</v>
@@ -5661,10 +5830,11 @@
         <v>53</v>
       </c>
       <c r="B55">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
         <v>198</v>
@@ -5676,10 +5846,11 @@
         <v>54</v>
       </c>
       <c r="B56">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
         <v>198</v>
@@ -5691,10 +5862,11 @@
         <v>55</v>
       </c>
       <c r="B57">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
         <v>198</v>
@@ -5706,10 +5878,11 @@
         <v>56</v>
       </c>
       <c r="B58">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
         <v>198</v>
@@ -5721,10 +5894,11 @@
         <v>57</v>
       </c>
       <c r="B59">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
@@ -5736,10 +5910,11 @@
         <v>58</v>
       </c>
       <c r="B60">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
         <v>198</v>
@@ -5751,10 +5926,11 @@
         <v>59</v>
       </c>
       <c r="B61">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
         <v>198</v>
@@ -5766,10 +5942,14 @@
         <v>60</v>
       </c>
       <c r="B62">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5778,48 +5958,2062 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="D63" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B66">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B67">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C67" t="s">
-        <v>202</v>
+      <c r="C68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B133" si="3">FLOOR(A70/2,1)</f>
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C85" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C105" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C110" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C113" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C115" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C117" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C118" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C126" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C127" t="s">
+        <v>281</v>
+      </c>
+      <c r="D127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C130" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
+        <v>263</v>
+      </c>
+      <c r="D131" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f t="shared" ref="A132:A191" si="4">A131+1</f>
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:B184" si="5">FLOOR(A134/2,1)</f>
+        <v>66</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C138" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C139" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>272</v>
+      </c>
+      <c r="D140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>275</v>
+      </c>
+      <c r="D143" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C145" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C146" t="s">
+        <v>283</v>
+      </c>
+      <c r="D146" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
+        <v>284</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C149" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C150" t="s">
+        <v>244</v>
+      </c>
+      <c r="D150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C151" t="s">
+        <v>245</v>
+      </c>
+      <c r="D151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C152" t="s">
+        <v>246</v>
+      </c>
+      <c r="D152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C153" t="s">
+        <v>247</v>
+      </c>
+      <c r="D153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C154" t="s">
+        <v>248</v>
+      </c>
+      <c r="D154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C155" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C157" t="s">
+        <v>251</v>
+      </c>
+      <c r="D157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C158" t="s">
+        <v>252</v>
+      </c>
+      <c r="D158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C160" t="s">
+        <v>254</v>
+      </c>
+      <c r="D160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>255</v>
+      </c>
+      <c r="D161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C162" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C163" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C164" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C165" t="s">
+        <v>259</v>
+      </c>
+      <c r="D165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C166" t="s">
+        <v>260</v>
+      </c>
+      <c r="D166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C167" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C168" t="s">
+        <v>280</v>
+      </c>
+      <c r="D168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C169" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C170" t="s">
+        <v>282</v>
+      </c>
+      <c r="D170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C171" t="s">
+        <v>261</v>
+      </c>
+      <c r="D171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C172" t="s">
+        <v>262</v>
+      </c>
+      <c r="D172" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C173" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C174" t="s">
+        <v>264</v>
+      </c>
+      <c r="D174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C175" t="s">
+        <v>265</v>
+      </c>
+      <c r="D175" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="C176" t="s">
+        <v>266</v>
+      </c>
+      <c r="D176" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+      <c r="D177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="C178" t="s">
+        <v>268</v>
+      </c>
+      <c r="D178" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="C179" t="s">
+        <v>269</v>
+      </c>
+      <c r="D179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="C180" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="C181" t="s">
+        <v>271</v>
+      </c>
+      <c r="D181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C182" t="s">
+        <v>272</v>
+      </c>
+      <c r="D182" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C183" t="s">
+        <v>273</v>
+      </c>
+      <c r="D183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C184" t="s">
+        <v>274</v>
+      </c>
+      <c r="D184" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ref="B185:B191" si="6">FLOOR(A185/2,1)</f>
+        <v>91</v>
+      </c>
+      <c r="C185" t="s">
+        <v>275</v>
+      </c>
+      <c r="D185" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="C186" t="s">
+        <v>276</v>
+      </c>
+      <c r="D186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="C187" t="s">
+        <v>277</v>
+      </c>
+      <c r="D187" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="C188" t="s">
+        <v>283</v>
+      </c>
+      <c r="D188" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="C189" t="s">
+        <v>284</v>
+      </c>
+      <c r="D189" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="C190" t="s">
+        <v>285</v>
+      </c>
+      <c r="D190" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="C191" t="s">
+        <v>286</v>
+      </c>
+      <c r="D191" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
